--- a/output/frequent_words/excel/all_websites_frequent_words_dict_translated_de.xlsx
+++ b/output/frequent_words/excel/all_websites_frequent_words_dict_translated_de.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,102 +453,4969 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://röda.at/der-verein/</t>
+          <t>https://www.100-dakar.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Technische</t>
+          <t>Cookies</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://röda.at/der-verein/</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Speicherung</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://röda.at/der-verein/</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Kulturverein</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
+          <t>https://www.11familiengeschichten.at</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.1n0ut.com</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://www.grgr.at/</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gregor</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
+          <t>https://www.aguadestund.at</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://www.grgr.at/</t>
+          <t>https://www.akku-steyr.com</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Akku</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.alteschule-gutau.at</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Schule</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.aminoreamore.com</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.andreaskurz.net</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.andreaszingerle.com</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.anja.west.servus.at</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sprachen</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.anna-fiala.at</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hofwerkstatt</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.anna-kraher.de</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.antonraidel.com</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.apephonie.org</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Arbeiten</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.apileofghosts.com</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.appoe.at</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.apt.servus.at</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.archiv.fiftitu.at</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.archivia.at</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.argemarie.at</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ausstellung</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.arttraffic-strand.net</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Verkehr</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.audiobomber.at</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.augumohr.servus.at</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.aussitzen.kapu.or.at</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.babelingo.net</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.backlab.at</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.backwood.at</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.base.at</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Lächelnd</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.basicray.org</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.bb15.at</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.beauty.servus.at</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.benjaminwahl.at</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.beschallungsfrei.at</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Hörstadt</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.bettywimmer.net</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Betty</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.bibnet.servus.at</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.bildstrom.at</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.birgit-wagner.net</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Kommend</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.bogendorfer.com</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.boxafilm.com</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.buergerinnenrat.at</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Pflegearbeit</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.bunostik.org</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.butoh.at</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.cannedfit.net</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.cba.fro.at</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.christineeder.servus.at</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.chschoe.net</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.cinemanext.at</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Weiter</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.ciras2008.servus.at</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.cloud.servus.at</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.club.stwst.at</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.collective-ika.org</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Ika</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.core.servus.at</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.corpushomini.info</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.corridorsounds.org</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.crowdundruam.at</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.dakarartsfestival.net</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.dana-rausch.com</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.dan-tien.at</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.dasfundus.net</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Förderungen</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.dasholzhaus.at</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.das-kollektiv.at</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>März</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.dasparkhotel.net</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.daumenkino.at</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.davidebevilacqua.com</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Forschung</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.dbadm2.servus.at</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.deathpositiv.at</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.delta1.at</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.derieg.com</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.derkaktus.at</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Kaktus</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.derschueler.at</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Schule</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.dh5.space</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Sitzung</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://www.diebresche.org</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.diequote.at</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.die-schule.at</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Schule</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.diesenreiter.at</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.dilemmarecords.com</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Jeffery</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.diyrepaircafe.ig-demokratie.at</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://www.donau-danube.eu</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Brückenschlag</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://www.donautics.stwst.at</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.dorninger.servus.at</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.doublehappiness.at</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.downinthehole.org</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://www.drdidi.at</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Didi</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://www.drehorgelkabarett.at</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.dreiundachtzig.servus.at</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://www.dunkelkammer.net</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.eipcp.net</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://www.eliot.at</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
           <t>Arbeit</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://www.eliot-works.at</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://www.ellaraidel.com</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Ella</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.emu.kapu.or.at</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.erichklinger.at</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://www.esslinger.servus.at</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.etextile-summercamp.org</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.extrabunt.at</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://www.faces-l.net</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://www.fauxpas.at</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://www.faxen-collective.net</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.fdr.at</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://www.feed-the-idiots.com</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.felerlos.at</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Schreiben</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://www.feminismus-krawall.at</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>März</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://www.fiftitu.at</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>März</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://www.filmriss.at</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Filmriss</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.finaesslinger.at</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.finopoly.at</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Live</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.forum.pmk.or.at</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.frauenkultur.at</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Kultur</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://www.fraumayr.at</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Gestaltung</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.frautomani.at</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.freie-medien.at</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Linz</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://www.freier-rundfunk.at</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://www.freizeitundkommunikation.at</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Linz</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://www.frf.at</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Kasino</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://www.fro.at</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Uhr</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://www.fruehling2012.servus.at</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://www.fuckhead.at</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Immer</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://www.gagosoft.net</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Buscitroën</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://www.gegenpolizeigewalt.servus.at</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://www.geraldkogler.com</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://www.gfa.or.at</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Damals</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://www.gg.servus.at</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://www.gis-orchestra.at</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://www.graztermine.at</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Trio</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://www.grenzland-zeitgenossenschaft.org</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://www.grgr.at</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Gregor</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://www.guglmugl.net</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://www.habitat.servus.at</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://www.hangover9e.servus.at</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://www.hauntedspaces.net</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Gespenstische</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://www.heartofnoise.at</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://www.helmutneugebauer.at</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://www.hiroshima.at</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://www.hoerspuren.at</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Audioguides</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://www.hoerstadt.at</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Arbeit</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://www.hr-ctrl.or.at</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Mitbestimmungskultur</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://www.hungaromedia.at</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Seite</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://www.ig-demokratie.at</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Demokratie</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://www.igkultur.at</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Kultur</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr"/>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://www.ingorandolf.info</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Nadel</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr"/>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://www.ingridschiller.at</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://www.innenraumlavinia.at</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Lavinia</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>http://www.grgr.at/</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Göttfert</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://www.insitu-linz09.at</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Essays</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr"/>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://www.internationalerfrauentag.servus.at</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://www.interregnum.live</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Kultur</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr"/>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://www.interstellarrecords.at</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Interstellar</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr"/>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://www.isadiessl.at</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://www.isation.org</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Irrationalisierung</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr"/>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://www.joreg.ath.cx</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://www.kairus.org</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr"/>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://www.kapu.or.at</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Konzert</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr"/>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://www.karawane.servus.at</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://www.kellerabteil.org</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr"/>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://www.kmptt.servus.at</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://www.kobakant.at</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://www.kohlberger.net</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://www.kolibri-schule.at</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Kinder</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr"/>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://www.konsortium.at</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Konsortiumnetzkultur</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr"/>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://www.kri.servus.at</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://www.kubriel.servus.at</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://www.kuenstlerinnen.at</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Seite</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr"/>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://www.kuk-linz.at</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://www.kulturviertelwochen.at</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Kulturviertelwochen</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr"/>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://www.kunstkanal.org</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://www.kunstraum.at</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://www.kunzwana.net</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Keith</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr"/>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://www.kupf.at</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://www.kuva.at</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://www.landderfreienmedien.at</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://www.landgaenge.eu</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Freistadt</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr"/>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://www.lauthals.org</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://www.leodressel.net</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Leo</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr"/>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://www.linzfmr.at</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Linz</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr"/>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://www.linzlinks.servus.at</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://www.liqua.net</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://www.lisawagner.at</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://www.lists.servus.at</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://www.livingwithplanb.derieg.com</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://www.lllk.at</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr"/>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://www.lotta-gaffa.at</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Ghert</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr"/>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://www.lottaschreibt.at</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://www.luckeneder-art.at</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Seite</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr"/>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://www.luftspur.com</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://www.lugl.at</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://www.lukeanddom.org</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://www.lustwerkstatt.at</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Sexarbeit</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr"/>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://www.madeby.at</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://www.magdalenareiter.at</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Magdalena</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr"/>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://www.maiz.at</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Migrantinnen</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr"/>
+      <c r="B276" t="inlineStr"/>
+      <c r="C276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://www.medea.servus.at</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://www.memphismemph.is</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Donaulã¤nde</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr"/>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://www.ment.org</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://www.merker.tv</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Marker tv</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr"/>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://www.michaelabaum.eu</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://www.migrazine.at</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://www.milchblut.at</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://www.mindbending.us</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://www.mmm-k.org</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://www.monitoring.servus.at</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://www.moodle.das-kollektiv.at</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://www.moodle.maiz.at</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://www.mrtg.servus.at</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://www.mulatschag.at</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://www.mulonga.linz.funkfeuer.at</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://www.mute.audio</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://www.muzak.timesup.org</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://www.mzbaltazarslaboratory.org</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Liebe</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr"/>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://www.n2n.servus.at</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://www.ncd.servus.at</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://www.negentropy-sport.net</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr"/>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://www.nerding.at</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Satomi</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr"/>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://www.newsbase.at</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://www.nichtstun.org</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Tun</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr"/>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://www.nichtwaehler.org</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://www.nomadenetappe.net</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://www.notton.at</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://www.nurdietoten.at</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Juni</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+    <row r="311">
+      <c r="A311" t="inlineStr"/>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://www.off.servus.at</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://www.ogg.at</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Audio</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr"/>
+      <c r="B314" t="inlineStr"/>
+      <c r="C314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://www.okabre.com</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Neu</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr"/>
+      <c r="B316" t="inlineStr"/>
+      <c r="C316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://www.otre.at</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Otto</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr"/>
+      <c r="B318" t="inlineStr"/>
+      <c r="C318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://www.ottosaxinger.at</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr"/>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://www.palmfiction.net</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Palme</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr"/>
+      <c r="B322" t="inlineStr"/>
+      <c r="C322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://www.patrick.derieg.com</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://www.paulovsky.org</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr"/>
+      <c r="B325" t="inlineStr"/>
+      <c r="C325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://www.peligro.at</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr"/>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>https://www.pena-flamenca.at</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://www.peterandrosch.at</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Androsch</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr"/>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://www.petra.servus.at</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://www.pflueckt.at</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://www.phonography.art</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
+      <c r="C333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://www.photosalonhelga.com</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Kasino</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr"/>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://www.physicalnarration.org</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://www.piramidops.at</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://www.platform-socialism.org</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Seite</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr"/>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://www.playground224.servus.at</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://www.pmk.or.at</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>...gehostet</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr"/>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://www.poelzlotto.at</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr"/>
+      <c r="C343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://www.potatopublishing.at</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr"/>
+      <c r="C344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://www.prequalsteps.maiz.at</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr"/>
+      <c r="C345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://www.programmkinowels.at</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://www.public.enemy.org</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://www.publications.servus.at</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr"/>
+      <c r="C348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://www.qlf-enterprises.com</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr"/>
+      <c r="C349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://www.q-testsite.com</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://www.quasikunst.at</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Mind</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr"/>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://www.queens-of-sound.com</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr"/>
+      <c r="C353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://www.qujochoe.org</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr"/>
+      <c r="C354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://www.rabbitcontrol.cc</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr"/>
+      <c r="C355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://www.radical-openness.org</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr"/>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://www.radio-fri.at</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr"/>
+      <c r="B359" t="inlineStr"/>
+      <c r="C359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://www.recordsdacubra.com</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr"/>
+      <c r="C360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>https://www.regional-express.org</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Seite</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr"/>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>https://www.reinhardreisenzahn.com</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr"/>
+      <c r="C363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>https://www.remember-bruckner.com</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Cmapprox</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr"/>
+      <c r="B365" t="inlineStr"/>
+      <c r="C365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>https://www.remorauscher.at</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>https://www.republicart.net</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Webjournal</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr"/>
+      <c r="B368" t="inlineStr"/>
+      <c r="C368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>https://www.research.radical-openness.org</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr"/>
+      <c r="C369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>https://www.retrogoldmine.com</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr"/>
+      <c r="C370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>https://www.ronit.at</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr"/>
+      <c r="C371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>https://www.rotespuren.at</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Antworten</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr"/>
+      <c r="B373" t="inlineStr"/>
+      <c r="C373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>https://www.rtfm.computer</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr"/>
+      <c r="C374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>https://www.rudolfhabringer.at</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Uhr</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr"/>
+      <c r="B376" t="inlineStr"/>
+      <c r="C376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>https://www.sabrina.servus.at</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr"/>
+      <c r="C377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>https://www.sandleitendatenbank.at</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr"/>
+      <c r="C378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>https://www.sandrabirklbauer.com</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr"/>
+      <c r="C379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>https://www.schager.servus.at</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr"/>
+      <c r="C380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>https://www.schneiderin.at</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr"/>
+      <c r="C381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>https://www.schuledesungehorsams.at</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr"/>
+      <c r="B383" t="inlineStr"/>
+      <c r="C383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>https://www.schulradiotag.at</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr"/>
+      <c r="C384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>https://www.sdmk.at</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr"/>
+      <c r="C385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>https://www.sebastiansix.net</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr"/>
+      <c r="C386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>https://www.selbstlaut.net</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Selbstlaut</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr"/>
+      <c r="B388" t="inlineStr"/>
+      <c r="C388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>https://www.selfdefenceit.maiz.at</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr"/>
+      <c r="C389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>https://www.sensenmaehen.at</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr"/>
+      <c r="C390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>https://www.sensorchestra.com</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Bedienungsanleitung</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr"/>
+      <c r="B392" t="inlineStr"/>
+      <c r="C392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>https://www.shanefinan.org</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Projekt</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr"/>
+      <c r="B394" t="inlineStr"/>
+      <c r="C394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>https://www.shiatsu-stef.at</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>https://www.sinnvolltaetigsein.at</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr"/>
+      <c r="C396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>https://www.skodone.at</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr"/>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>https://www.sofiabraga.com</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr"/>
+      <c r="C399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>https://www.sombrero.at</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Bruner</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr"/>
+      <c r="B401" t="inlineStr"/>
+      <c r="C401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>https://www.sosmitmensch-bgld.at</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Sos</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr"/>
+      <c r="B403" t="inlineStr"/>
+      <c r="C403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>https://www.soundinglinz.at</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr"/>
+      <c r="C404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>https://www.soundsource.servus.at</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr"/>
+      <c r="C405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>https://www.spaetzuenderin.servus.at</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr"/>
+      <c r="C406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>https://www.stats.servus.at</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>https://www.stefaner-schmid.net</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr"/>
+      <c r="B409" t="inlineStr"/>
+      <c r="C409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>https://www.steingeschichten.at</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Linz</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr"/>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>https://www.steinreich.servus.at</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr"/>
+      <c r="C412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>https://www.stephanroiss.at</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Lauter</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr"/>
+      <c r="B414" t="inlineStr"/>
+      <c r="C414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>https://www.stopshop.at</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Irratiopharm</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr"/>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>https://www.stopspot.servus.at</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr"/>
+      <c r="C417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>https://www.streettraining.org</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Straße</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr"/>
+      <c r="B419" t="inlineStr"/>
+      <c r="C419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>https://www.stuwer.info</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Stuwerviertel</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr"/>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>https://www.stwst.at</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Stadtwerkstatt</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr"/>
+      <c r="B423" t="inlineStr"/>
+      <c r="C423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>https://www.stwst-gw.servus.at</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr"/>
+      <c r="C424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>https://www.subcute.servus.at</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>https://www.sunobwegeser.net</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Veröffentlicht</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr"/>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>https://www.syntaxmirror.at</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>https://www.tabeacray.com</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Leinwand</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr"/>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>https://www.tamaratrackt.at</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr"/>
+      <c r="C431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>https://www.tauschkreis-freiwald.org</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Tauschkreis</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr"/>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>https://www.texta.at</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Listen</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr"/>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>https://www.theaternacht.at</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>https://www.theaternyx.at</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Theaternyx</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr"/>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>https://www.theater-tamtam.org</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Speicherung</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr"/>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>https://www.themagdalenaproject.org</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Magdalena</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr"/>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>https://www.thenextlayer.org</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr"/>
+      <c r="C443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>https://www.thomahawk.tv</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>https://www.thomasbaum.at</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Böse</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr"/>
+      <c r="B446" t="inlineStr"/>
+      <c r="C446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>https://www.thusandhence.com</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Dietrich</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr"/>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>https://www.timesup.org</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Zeit</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr"/>
+      <c r="B450" t="inlineStr"/>
+      <c r="C450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>https://www.tinaleisch.at</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr"/>
+      <c r="B452" t="inlineStr"/>
+      <c r="C452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>https://www.todableiter.servus.at</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr"/>
+      <c r="C453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>https://www.totalsilence.de</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>https://www.transversal.wwb.cc</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>https://www.travolta.at</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Kunstbüro</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr"/>
+      <c r="B457" t="inlineStr"/>
+      <c r="C457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>https://www.triviale.at</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Triviale</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr"/>
+      <c r="B459" t="inlineStr"/>
+      <c r="C459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>https://www.tschneid.servus.at</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr"/>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>https://www.tschoerda.at</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr"/>
+      <c r="C462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>https://www.umbrella-march-linz.at</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr"/>
+      <c r="C463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>https://www.unibrennt.at</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>https://www.unkraut-comics.at</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>März</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr"/>
+      <c r="B466" t="inlineStr"/>
+      <c r="C466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>https://www.unruly-thoughts.com</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr"/>
+      <c r="C467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>https://www.unsustainabil.it</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>https://www.valina.at</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Valina</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr"/>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>https://www.velodrom-linz.at</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr"/>
+      <c r="C471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>https://www.verein-ent.at</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Ent</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr"/>
+      <c r="B473" t="inlineStr"/>
+      <c r="C473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>https://www.verein-strandgut.at</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>https://www.verenamayrhofer.at</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Verena</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr"/>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>https://www.versorgerin.stwst.at</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>https://www.villanorth.at</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr"/>
+      <c r="C478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>https://www.vladislavnazarov.com</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>https://www.vonunten.at</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Bürgerinnenrat</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr"/>
+      <c r="B481" t="inlineStr"/>
+      <c r="C481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>https://www.vulgaripeace.com</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>https://www.waldegg116.at</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Wirtshaus</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr"/>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>https://www.walterschalter.at</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Electronica</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr"/>
+      <c r="B486" t="inlineStr"/>
+      <c r="C486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>https://www.wassermair.net</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Weblog</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr"/>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>https://www.wasserscheide.servus.at</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr"/>
+      <c r="C489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>https://www.waytoshambala.org</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr"/>
+      <c r="B491" t="inlineStr"/>
+      <c r="C491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>https://www.webmail.servus.at</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr"/>
+      <c r="C492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>https://www.webstats.servus.at</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>https://www.wegstrecken.at</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Projekte</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr"/>
+      <c r="B495" t="inlineStr"/>
+      <c r="C495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>https://www.werkenmitwiderstand.org</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr"/>
+      <c r="C496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>https://www.whysociety.org</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr"/>
+      <c r="C497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>https://www.wiki.physicalnarration.org</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>https://www.willworkforfood.servus.at</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>https://www.wirtshauswissenschaften.at</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Politik</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr"/>
+      <c r="B501" t="inlineStr"/>
+      <c r="C501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>https://www.wohnzimmergalerie.net</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr"/>
+      <c r="C502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>https://www.wolfgang-muellegger.at</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr"/>
+      <c r="C503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>https://www.wolkenhaende.at</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Kleine</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr"/>
+      <c r="B505" t="inlineStr"/>
+      <c r="C505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>https://www.workstation.or.at</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Arbeitsplatz</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr"/>
+      <c r="B507" t="inlineStr"/>
+      <c r="C507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>https://www.xxero.servus.at</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr"/>
+      <c r="C508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>https://www.zapalotta.org</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr"/>
+      <c r="C509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>https://www.zeitgemeinschaft.at</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Zeitgemeinschaft</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr"/>
+      <c r="B511" t="inlineStr"/>
+      <c r="C511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>https://www.zeitgenossenschaft.at</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>https://www.zeugfaerberei.at</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Experimentalwerkstatt</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr"/>
+      <c r="B514" t="inlineStr"/>
+      <c r="C514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>https://www.zogholy.net</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Andre</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr"/>
+      <c r="B516" t="inlineStr"/>
+      <c r="C516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>https://www.zumutbar.at</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Zucker</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr"/>
+      <c r="B518" t="inlineStr"/>
+      <c r="C518" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/frequent_words/excel/all_websites_frequent_words_dict_translated_de.xlsx
+++ b/output/frequent_words/excel/all_websites_frequent_words_dict_translated_de.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,16 +453,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://rï¿½da.at/der-verein/</t>
+          <t>https://www.100-dakar.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Teeeeeeeeeeechnische</t>
+          <t>Cookies</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -473,22 +473,5444 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://www.grgr.at/</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gregor</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
+          <t>https://www.11familiengeschichten.at</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.1n0ut.com</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.aguadestund.at</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.akku-steyr.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Akku</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.alteschule-gutau.at</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Schule</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.aminoreamore.com</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.andreaskurz.net</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.andreaszingerle.com</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.anja.west.servus.at</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sprachen</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.anna-fiala.at</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hofwerkstatt</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.anna-kraher.de</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.antonraidel.com</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Anton</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.apephonie.org</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Arbeiten</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.apileofghosts.com</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.appoe.at</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.apt.servus.at</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.archiv.fiftitu.at</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.archivia.at</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.argemarie.at</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ausstellung</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.arttraffic-strand.net</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Verkehr</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.audiobomber.at</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.augumohr.servus.at</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.aussitzen.kapu.or.at</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.babelingo.net</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.backlab.at</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ereignissekeine</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.backwood.at</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.base.at</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Lächelnd</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.basicray.org</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.bb15.at</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Eine</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.beauty.servus.at</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.benjaminwahl.at</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.beschallungsfrei.at</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hörstadt</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.bettywimmer.net</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Betty</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.bibnet.servus.at</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.bildstrom.at</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.birgit-wagner.net</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Kommend</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.bogendorfer.com</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.boxafilm.com</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.buergerinnenrat.at</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Pflegearbeit</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.bunostik.org</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.butoh.at</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.cannedfit.net</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.cba.fro.at</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.christineeder.servus.at</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.chschoe.net</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.cinemanext.at</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Weiter</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.ciras2008.servus.at</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.cloud.servus.at</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.club.stwst.at</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.collective-ika.org</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Ika</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.core.servus.at</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.corpushomini.info</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.corridorsounds.org</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.crowdundruam.at</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Reisinger</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.dakarartsfestival.net</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.dana-rausch.com</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.dan-tien.at</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.dasfundus.net</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Förderungen</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.dasholzhaus.at</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.das-kollektiv.at</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>März</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.dasparkhotel.net</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.daumenkino.at</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://www.davidebevilacqua.com</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Forschung</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.dbadm2.servus.at</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://www.deathpositiv.at</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Sargbar</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.delta1.at</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.derieg.com</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.derkaktus.at</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Kaktus</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.derschueler.at</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Schule</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.dh5.space</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Sitzung</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://www.diebresche.org</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.diequote.at</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.die-schule.at</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Schule</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.diesenreiter.at</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Mio</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://www.dilemmarecords.com</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Jeffery</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://www.diyrepaircafe.ig-demokratie.at</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.donau-danube.eu</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Brückenschlag</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.donautics.stwst.at</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://www.dorninger.servus.at</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://www.doublehappiness.at</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://www.downinthehole.org</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://www.drdidi.at</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Didi</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.drehorgelkabarett.at</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.dreiundachtzig.servus.at</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.dunkelkammer.net</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Que</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://www.eipcp.net</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.eliot.at</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Arbeit</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.eliot-works.at</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://www.ellaraidel.com</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Ella</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://www.emu.kapu.or.at</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://www.erichklinger.at</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://www.esslinger.servus.at</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://www.etextile-summercamp.org</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://www.extrabunt.at</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Familien</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.faces-l.net</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.fauxpas.at</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.faxen-collective.net</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Faxe</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://www.fdr.at</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Rufen sie  an.</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.feed-the-idiots.com</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.felerlos.at</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Schreiben</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://www.feminismus-krawall.at</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>März</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://www.fiftitu.at</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>März</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://www.filmriss.at</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Filmriss</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://www.finaesslinger.at</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://www.finopoly.at</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Live</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://www.forum.pmk.or.at</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://www.frauenkultur.at</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Kultur</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://www.fraumayr.at</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Gestaltung</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://www.frautomani.at</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://www.freie-medien.at</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Linz</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://www.freier-rundfunk.at</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://www.freizeitundkommunikation.at</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Linz</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://www.frf.at</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Kasino</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://www.fro.at</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Uhr</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://www.fruehling2012.servus.at</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://www.fuckhead.at</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Immer</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://www.gagosoft.net</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Buscitroën</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://www.gegenpolizeigewalt.servus.at</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://www.geraldkogler.com</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://www.gfa.or.at</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Damals</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://www.gg.servus.at</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://www.gis-orchestra.at</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://www.graztermine.at</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Trio</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://www.grenzland-zeitgenossenschaft.org</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://www.grgr.at</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Gregor</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://www.guglmugl.net</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://www.habitat.servus.at</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://www.hangover9e.servus.at</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://www.hauntedspaces.net</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Gespenstische</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://www.heartofnoise.at</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Noise</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://www.helmutneugebauer.at</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr"/>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://www.hiroshima.at</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://www.hoerspuren.at</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Audioguides</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr"/>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://www.hoerstadt.at</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Arbeit</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr"/>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://www.hr-ctrl.or.at</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Mitbestimmungskultur</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr"/>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://www.hungaromedia.at</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Seite</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr"/>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://www.ig-demokratie.at</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Demokratie</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr"/>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://www.igkultur.at</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Kultur</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr"/>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://www.ingorandolf.info</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Nadel</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr"/>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://www.ingridschiller.at</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr"/>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://www.innenraumlavinia.at</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Lavinia</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr"/>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://www.insitu-linz09.at</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Essays</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr"/>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://www.internationalerfrauentag.servus.at</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://www.interregnum.live</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Kultur</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr"/>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://www.interstellarrecords.at</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Interstellar</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr"/>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://www.isadiessl.at</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://www.isation.org</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Irrationalisierung</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr"/>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://www.joreg.ath.cx</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://www.kairus.org</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr"/>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://www.kapu.or.at</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Konzert</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr"/>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://www.karawane.servus.at</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://www.kellerabteil.org</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr"/>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://www.kmptt.servus.at</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://www.kobakant.at</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://www.kohlberger.net</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://www.kolibri-schule.at</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Kinder</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr"/>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://www.konsortium.at</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Konsortiumnetzkultur</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr"/>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://www.kri.servus.at</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://www.kubriel.servus.at</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://www.kuenstlerinnen.at</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Seite</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr"/>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://www.kuk-linz.at</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://www.kulturviertelwochen.at</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Kulturviertelwochen</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr"/>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://www.kunstkanal.org</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://www.kunstraum.at</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Commit</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr"/>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://www.kunzwana.net</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Keith</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr"/>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://www.kupf.at</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Kupf</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr"/>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://www.kuva.at</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Sprichcode</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr"/>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://www.landderfreienmedien.at</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://www.landgaenge.eu</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Freistadt</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr"/>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://www.lauthals.org</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Laut</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr"/>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://www.leodressel.net</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Leo</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr"/>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://www.linzfmr.at</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Linz</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr"/>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://www.linzlinks.servus.at</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://www.liqua.net</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://www.lisawagner.at</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://www.lists.servus.at</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://www.livingwithplanb.derieg.com</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://www.lllk.at</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr"/>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://www.lotta-gaffa.at</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Ghert</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr"/>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://www.lottaschreibt.at</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://www.luckeneder-art.at</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Seite</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr"/>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://www.luftspur.com</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://www.lugl.at</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Lugl</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr"/>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://www.lukeanddom.org</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://www.lustwerkstatt.at</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Sexarbeit</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr"/>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://www.madeby.at</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://www.magdalenareiter.at</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Magdalena</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr"/>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://www.maiz.at</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Migrantinnen</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr"/>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://www.medea.servus.at</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://www.memphismemph.is</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Donaulã¤nde</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr"/>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://www.ment.org</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://www.merker.tv</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Marker tv</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr"/>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://www.michaelabaum.eu</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://www.migrazine.at</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://www.milchblut.at</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://www.mindbending.us</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://www.mmm-k.org</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://www.monitoring.servus.at</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr"/>
+      <c r="C314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://www.moodle.das-kollektiv.at</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://www.moodle.maiz.at</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr"/>
+      <c r="C316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://www.mrtg.servus.at</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://www.mulatschag.at</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr"/>
+      <c r="C318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://www.mulonga.linz.funkfeuer.at</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr"/>
+      <c r="C319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://www.mute.audio</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Inhalt</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr"/>
+      <c r="B321" t="inlineStr"/>
+      <c r="C321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://www.muzak.timesup.org</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr"/>
+      <c r="C322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://www.mzbaltazarslaboratory.org</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Liebe</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr"/>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://www.n2n.servus.at</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr"/>
+      <c r="C325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://www.ncd.servus.at</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr"/>
+      <c r="C326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://www.negentropy-sport.net</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr"/>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://www.nerding.at</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Satomi</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr"/>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://www.newsbase.at</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://www.nichtstun.org</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Tun</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr"/>
+      <c r="B333" t="inlineStr"/>
+      <c r="C333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://www.nichtwaehler.org</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr"/>
+      <c r="C334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://www.nomadenetappe.net</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://www.notton.at</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://www.nurdietoten.at</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Juni</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr"/>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://www.off.servus.at</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://www.ogg.at</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Audio</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr"/>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://www.okabre.com</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Neu</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr"/>
+      <c r="B343" t="inlineStr"/>
+      <c r="C343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://www.otre.at</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Otto</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr"/>
+      <c r="B345" t="inlineStr"/>
+      <c r="C345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://www.ottosaxinger.at</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr"/>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://www.palmfiction.net</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Palme</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr"/>
+      <c r="B349" t="inlineStr"/>
+      <c r="C349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://www.patrick.derieg.com</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://www.paulovsky.org</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr"/>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://www.peligro.at</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr"/>
+      <c r="B354" t="inlineStr"/>
+      <c r="C354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://www.pena-flamenca.at</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Flamenca</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr"/>
+      <c r="B356" t="inlineStr"/>
+      <c r="C356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://www.peterandrosch.at</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Androsch</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr"/>
+      <c r="B358" t="inlineStr"/>
+      <c r="C358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://www.petra.servus.at</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr"/>
+      <c r="C359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://www.pflueckt.at</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Linz</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr"/>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>https://www.phonography.art</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>https://www.photosalonhelga.com</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Kasino</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr"/>
+      <c r="B364" t="inlineStr"/>
+      <c r="C364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>https://www.physicalnarration.org</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr"/>
+      <c r="C365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>https://www.piramidops.at</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>https://www.platform-socialism.org</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Seite</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr"/>
+      <c r="B368" t="inlineStr"/>
+      <c r="C368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>https://www.playground224.servus.at</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr"/>
+      <c r="C369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>https://www.pmk.or.at</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>...gehostet</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr"/>
+      <c r="B371" t="inlineStr"/>
+      <c r="C371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>https://www.poelzlotto.at</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr"/>
+      <c r="C372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>https://www.potatopublishing.at</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr"/>
+      <c r="C373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>https://www.prequalsteps.maiz.at</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr"/>
+      <c r="C374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>https://www.programmkinowels.at</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr"/>
+      <c r="B376" t="inlineStr"/>
+      <c r="C376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>https://www.public.enemy.org</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr"/>
+      <c r="C377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>https://www.publications.servus.at</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr"/>
+      <c r="C378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>https://www.qlf-enterprises.com</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr"/>
+      <c r="C379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>https://www.q-testsite.com</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr"/>
+      <c r="C380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>https://www.quasikunst.at</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Mind</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr"/>
+      <c r="B382" t="inlineStr"/>
+      <c r="C382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>https://www.queens-of-sound.com</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr"/>
+      <c r="C383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>https://www.qujochoe.org</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr"/>
+      <c r="C384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>https://www.rabbitcontrol.cc</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Kontrolle</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr"/>
+      <c r="B386" t="inlineStr"/>
+      <c r="C386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>https://www.radical-openness.org</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr"/>
+      <c r="B388" t="inlineStr"/>
+      <c r="C388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>https://www.radio-fri.at</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr"/>
+      <c r="B390" t="inlineStr"/>
+      <c r="C390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>https://www.recordsdacubra.com</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr"/>
+      <c r="C391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>https://www.regional-express.org</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Seite</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr"/>
+      <c r="B393" t="inlineStr"/>
+      <c r="C393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>https://www.reinhardreisenzahn.com</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr"/>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>https://www.remember-bruckner.com</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Cmapprox</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr"/>
+      <c r="B397" t="inlineStr"/>
+      <c r="C397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>https://www.remorauscher.at</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr"/>
+      <c r="B399" t="inlineStr"/>
+      <c r="C399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>https://www.republicart.net</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Webjournal</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr"/>
+      <c r="B401" t="inlineStr"/>
+      <c r="C401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>https://www.research.radical-openness.org</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>https://www.retrogoldmine.com</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr"/>
+      <c r="B404" t="inlineStr"/>
+      <c r="C404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>https://www.ronit.at</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr"/>
+      <c r="C405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>https://www.rotespuren.at</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Antworten</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr"/>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>https://www.rtfm.computer</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr"/>
+      <c r="C408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>https://www.rudolfhabringer.at</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Uhr</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr"/>
+      <c r="B410" t="inlineStr"/>
+      <c r="C410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>https://www.sabrina.servus.at</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>https://www.sandleitendatenbank.at</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr"/>
+      <c r="C412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>https://www.sandrabirklbauer.com</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr"/>
+      <c r="B414" t="inlineStr"/>
+      <c r="C414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>https://www.schager.servus.at</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr"/>
+      <c r="C415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>https://www.schneiderin.at</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>https://www.schuledesungehorsams.at</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr"/>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>https://www.schulradiotag.at</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr"/>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>https://www.sdmk.at</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Beim</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr"/>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>https://www.sebastiansix.net</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Sechs</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr"/>
+      <c r="B424" t="inlineStr"/>
+      <c r="C424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>https://www.selbstlaut.net</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Selbstlaut</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr"/>
+      <c r="B426" t="inlineStr"/>
+      <c r="C426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>https://www.selfdefenceit.maiz.at</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>https://www.sensenmaehen.at</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>https://www.sensorchestra.com</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Bedienungsanleitung</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr"/>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>https://www.shanefinan.org</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Projekt</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr"/>
+      <c r="B432" t="inlineStr"/>
+      <c r="C432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>https://www.shiatsu-stef.at</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Fischer</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr"/>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>https://www.sinnvolltaetigsein.at</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>https://www.skodone.at</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr"/>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>https://www.sofiabraga.com</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Irdisch</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr"/>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>https://www.sombrero.at</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Bruner</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr"/>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>https://www.sosmitmensch-bgld.at</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Sos</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr"/>
+      <c r="B443" t="inlineStr"/>
+      <c r="C443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>https://www.soundinglinz.at</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>https://www.soundsource.servus.at</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr"/>
+      <c r="C445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>https://www.spaetzuenderin.servus.at</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr"/>
+      <c r="C446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>https://www.stats.servus.at</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr"/>
+      <c r="C447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>https://www.stefaner-schmid.net</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr"/>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>https://www.steingeschichten.at</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Linz</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr"/>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>https://www.steinreich.servus.at</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr"/>
+      <c r="C452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>https://www.stephanroiss.at</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Lauter</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr"/>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>https://www.stopshop.at</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Irratiopharm</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr"/>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>https://www.stopspot.servus.at</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr"/>
+      <c r="C457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>https://www.streettraining.org</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Straße</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr"/>
+      <c r="B459" t="inlineStr"/>
+      <c r="C459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>https://www.stuwer.info</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Stuwerviertel</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr"/>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>https://www.stwst.at</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Stadtwerkstatt</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr"/>
+      <c r="B463" t="inlineStr"/>
+      <c r="C463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>https://www.stwst-gw.servus.at</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>https://www.subcute.servus.at</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr"/>
+      <c r="C465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>https://www.sunobwegeser.net</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Veröffentlicht</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr"/>
+      <c r="B467" t="inlineStr"/>
+      <c r="C467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>https://www.syntaxmirror.at</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>https://www.tabeacray.com</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Leinwand</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr"/>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>https://www.tamaratrackt.at</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Salon</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr"/>
+      <c r="B472" t="inlineStr"/>
+      <c r="C472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>https://www.tauschkreis-freiwald.org</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Tauschkreis</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr"/>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>https://www.texta.at</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Listen</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr"/>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>https://www.theaternacht.at</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr"/>
+      <c r="B478" t="inlineStr"/>
+      <c r="C478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>https://www.theaternyx.at</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Theaternyx</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr"/>
+      <c r="B480" t="inlineStr"/>
+      <c r="C480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>https://www.theater-tamtam.org</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Speicherung</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr"/>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>https://www.themagdalenaproject.org</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Magdalena</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr"/>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>https://www.thenextlayer.org</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr"/>
+      <c r="C485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>https://www.thomahawk.tv</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr"/>
+      <c r="C486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>https://www.thomasbaum.at</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Böse</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr"/>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>https://www.thusandhence.com</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Dietrich</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr"/>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>https://www.timesup.org</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Zeit</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr"/>
+      <c r="B492" t="inlineStr"/>
+      <c r="C492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>https://www.tinaleisch.at</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr"/>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>https://www.todableiter.servus.at</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr"/>
+      <c r="C495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>https://www.totalsilence.de</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Musik</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr"/>
+      <c r="B497" t="inlineStr"/>
+      <c r="C497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>https://www.transversal.wwb.cc</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>https://www.travolta.at</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Kunstbüro</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr"/>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>https://www.triviale.at</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Triviale</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr"/>
+      <c r="B502" t="inlineStr"/>
+      <c r="C502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>https://www.tschneid.servus.at</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr"/>
+      <c r="B504" t="inlineStr"/>
+      <c r="C504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>https://www.tschoerda.at</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Dezember</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr"/>
+      <c r="B506" t="inlineStr"/>
+      <c r="C506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>https://www.umbrella-march-linz.at</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr"/>
+      <c r="C507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>https://www.unibrennt.at</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr"/>
+      <c r="C508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>https://www.unkraut-comics.at</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>März</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr"/>
+      <c r="B510" t="inlineStr"/>
+      <c r="C510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>https://www.unruly-thoughts.com</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Feministisch</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr"/>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>https://www.unsustainabil.it</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr"/>
+      <c r="C513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>https://www.valina.at</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Valina</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr"/>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>https://www.velodrom-linz.at</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr"/>
+      <c r="C516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>https://www.verein-ent.at</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Ent</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr"/>
+      <c r="B518" t="inlineStr"/>
+      <c r="C518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>https://www.verein-strandgut.at</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>https://www.verenamayrhofer.at</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Verena</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr"/>
+      <c r="B521" t="inlineStr"/>
+      <c r="C521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>https://www.versorgerin.stwst.at</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr"/>
+      <c r="C522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>https://www.villanorth.at</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr"/>
+      <c r="C523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>https://www.vladislavnazarov.com</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr"/>
+      <c r="C524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>https://www.vonunten.at</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Bürgerinnenrat</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr"/>
+      <c r="B526" t="inlineStr"/>
+      <c r="C526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>https://www.vulgaripeace.com</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>https://www.waldegg116.at</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Wirtshaus</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr"/>
+      <c r="B529" t="inlineStr"/>
+      <c r="C529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>https://www.walterschalter.at</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Electronica</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr"/>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>https://www.wassermair.net</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Weblog</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr"/>
+      <c r="B533" t="inlineStr"/>
+      <c r="C533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>https://www.wasserscheide.servus.at</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr"/>
+      <c r="C534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>https://www.waytoshambala.org</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr"/>
+      <c r="B536" t="inlineStr"/>
+      <c r="C536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>https://www.webmail.servus.at</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr"/>
+      <c r="C537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>https://www.webstats.servus.at</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr"/>
+      <c r="C538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>https://www.wegstrecken.at</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Projekte</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr"/>
+      <c r="B540" t="inlineStr"/>
+      <c r="C540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>https://www.werkenmitwiderstand.org</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr"/>
+      <c r="C541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>https://www.whysociety.org</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>https://www.wiki.physicalnarration.org</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr"/>
+      <c r="C543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>https://www.willworkforfood.servus.at</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr"/>
+      <c r="C544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>https://www.wirtshauswissenschaften.at</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Politik</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr"/>
+      <c r="B546" t="inlineStr"/>
+      <c r="C546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>https://www.wohnzimmergalerie.net</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr"/>
+      <c r="C547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>https://www.wolfgang-muellegger.at</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr"/>
+      <c r="C548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>https://www.wolkenhaende.at</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Kleine</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr"/>
+      <c r="B550" t="inlineStr"/>
+      <c r="C550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>https://www.workstation.or.at</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Arbeitsplatz</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr"/>
+      <c r="B552" t="inlineStr"/>
+      <c r="C552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>https://www.xxero.servus.at</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr"/>
+      <c r="C553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>https://www.zapalotta.org</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr"/>
+      <c r="C554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>https://www.zeitgemeinschaft.at</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Zeitgemeinschaft</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr"/>
+      <c r="B556" t="inlineStr"/>
+      <c r="C556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>https://www.zeitgenossenschaft.at</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr"/>
+      <c r="C557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>https://www.zeugfaerberei.at</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Experimentalwerkstatt</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr"/>
+      <c r="B559" t="inlineStr"/>
+      <c r="C559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>https://www.zogholy.net</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Andre</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr"/>
+      <c r="B561" t="inlineStr"/>
+      <c r="C561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>https://www.zumutbar.at</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Zucker</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr"/>
+      <c r="B563" t="inlineStr"/>
+      <c r="C563" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
